--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H2">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>2.420432645948666</v>
+        <v>0.160147425042</v>
       </c>
       <c r="R2">
-        <v>14.522595875692</v>
+        <v>1.441326825378</v>
       </c>
       <c r="S2">
-        <v>0.4452121315669254</v>
+        <v>0.02569975157108609</v>
       </c>
       <c r="T2">
-        <v>0.498852598788108</v>
+        <v>0.04085663137589959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,19 +596,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H3">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>1.262400640752667</v>
+        <v>0.1250393167051111</v>
       </c>
       <c r="R3">
-        <v>7.574403844516</v>
+        <v>1.125353850346</v>
       </c>
       <c r="S3">
-        <v>0.232204800700274</v>
+        <v>0.02006575738009492</v>
       </c>
       <c r="T3">
-        <v>0.2601815181287207</v>
+        <v>0.0318998901716671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.082811</v>
+        <v>0.008202333333333334</v>
       </c>
       <c r="H4">
-        <v>0.165622</v>
+        <v>0.024607</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0618542966452333</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08999806156895879</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +679,338 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>1.753749578707</v>
+        <v>0.09802362906783334</v>
       </c>
       <c r="R4">
-        <v>7.014998314828</v>
+        <v>0.588141774407</v>
       </c>
       <c r="S4">
-        <v>0.3225830677328007</v>
+        <v>0.01573039912742233</v>
       </c>
       <c r="T4">
-        <v>0.2409658830831714</v>
+        <v>0.01667178550389663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.008202333333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.024607</v>
+      </c>
+      <c r="I5">
+        <v>0.0618542966452333</v>
+      </c>
+      <c r="J5">
+        <v>0.08999806156895879</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.272275</v>
+      </c>
+      <c r="N5">
+        <v>0.816825</v>
+      </c>
+      <c r="O5">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P5">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q5">
+        <v>0.002233290308333333</v>
+      </c>
+      <c r="R5">
+        <v>0.020099612775</v>
+      </c>
+      <c r="S5">
+        <v>0.0003583885666299573</v>
+      </c>
+      <c r="T5">
+        <v>0.0005697545174954544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.124405</v>
+      </c>
+      <c r="H6">
+        <v>0.24881</v>
+      </c>
+      <c r="I6">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J6">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.524618</v>
+      </c>
+      <c r="N6">
+        <v>58.573854</v>
+      </c>
+      <c r="O6">
+        <v>0.4154885426712971</v>
+      </c>
+      <c r="P6">
+        <v>0.4539723485554654</v>
+      </c>
+      <c r="Q6">
+        <v>2.42896010229</v>
+      </c>
+      <c r="R6">
+        <v>14.57376061374</v>
+      </c>
+      <c r="S6">
+        <v>0.389788791100211</v>
+      </c>
+      <c r="T6">
+        <v>0.4131157171795659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.124405</v>
+      </c>
+      <c r="H7">
+        <v>0.24881</v>
+      </c>
+      <c r="I7">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J7">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N7">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O7">
+        <v>0.324403614112412</v>
+      </c>
+      <c r="P7">
+        <v>0.3544508583357054</v>
+      </c>
+      <c r="Q7">
+        <v>1.896474522863334</v>
+      </c>
+      <c r="R7">
+        <v>11.37884713718</v>
+      </c>
+      <c r="S7">
+        <v>0.3043378567323171</v>
+      </c>
+      <c r="T7">
+        <v>0.3225509681640383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.124405</v>
+      </c>
+      <c r="H8">
+        <v>0.24881</v>
+      </c>
+      <c r="I8">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J8">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.9507005</v>
+      </c>
+      <c r="N8">
+        <v>23.901401</v>
+      </c>
+      <c r="O8">
+        <v>0.2543137660693869</v>
+      </c>
+      <c r="P8">
+        <v>0.1852460510065796</v>
+      </c>
+      <c r="Q8">
+        <v>1.4867268957025</v>
+      </c>
+      <c r="R8">
+        <v>5.94690758281</v>
+      </c>
+      <c r="S8">
+        <v>0.2385833669419646</v>
+      </c>
+      <c r="T8">
+        <v>0.168574265502683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.124405</v>
+      </c>
+      <c r="H9">
+        <v>0.24881</v>
+      </c>
+      <c r="I9">
+        <v>0.9381457033547667</v>
+      </c>
+      <c r="J9">
+        <v>0.9100019384310413</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.272275</v>
+      </c>
+      <c r="N9">
+        <v>0.816825</v>
+      </c>
+      <c r="O9">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P9">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q9">
+        <v>0.03387237137499999</v>
+      </c>
+      <c r="R9">
+        <v>0.20323422825</v>
+      </c>
+      <c r="S9">
+        <v>0.005435688580273886</v>
+      </c>
+      <c r="T9">
+        <v>0.005760987584754094</v>
       </c>
     </row>
   </sheetData>
